--- a/Data from Dan's machine.xlsx
+++ b/Data from Dan's machine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keiran\Documents\Master's Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8BC20D-6248-4975-8EBB-0A494CCA8240}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54054A2F-B1B1-4DC0-AEE1-9972CF5B08FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23451" windowHeight="12917" xr2:uid="{E4994485-E63E-4E2A-9A2B-5810112701AE}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23451" windowHeight="12917" activeTab="2" xr2:uid="{E4994485-E63E-4E2A-9A2B-5810112701AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Across Center Conductors" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Magnitude (ohms)</t>
   </si>
@@ -36,6 +36,42 @@
   </si>
   <si>
     <t>Phase (deg)</t>
+  </si>
+  <si>
+    <t>Z mag (ohms)</t>
+  </si>
+  <si>
+    <t>Z theta (deg)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>C (nanofarads)</t>
+  </si>
+  <si>
+    <t>f (MHz)</t>
+  </si>
+  <si>
+    <t>Below is from air 2</t>
+  </si>
+  <si>
+    <t>2770 uS/cm</t>
+  </si>
+  <si>
+    <t>370 uS/cm</t>
+  </si>
+  <si>
+    <t>5280 uS/cm</t>
+  </si>
+  <si>
+    <t>9660 uS/cm</t>
   </si>
 </sst>
 </file>
@@ -763,6 +799,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="314241752"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -849,6 +886,495 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Calculated Inductance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Across Center Conductors'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Across Center Conductors'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1430000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1450000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1460000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Across Center Conductors'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.4514930809980855E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.437169136119815E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4255735616945482E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4257166580469784E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4269063863411306E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4258538737273911E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4249672571494363E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4180705429487875E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.412659274883663E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36C1-4BD0-98C2-F8690CA9BF4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="425483712"/>
+        <c:axId val="425480104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="425483712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425480104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="425480104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Inductance (Henries)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425483712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1501,6 +2027,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="574141272"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1586,7 +2113,483 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Calculated Resistance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Across Shield'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Across Shield'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Across Shield'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>839</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>776</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B09C-42BA-A4CD-A7ED1E231C4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="423358536"/>
+        <c:axId val="423360504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="423358536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Hz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423360504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="423360504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Resistance (Ohms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423358536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1678,7 +2681,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Magnitude (ohms)</c:v>
+                  <c:v>Z mag (ohms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1851,7 +2854,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Phase (deg)</c:v>
+                  <c:v>Z theta (deg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2366,6 +3369,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="420996248"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2407,6 +3411,850 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Calculated Capacitance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Across Input'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2400000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2600000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2700000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Across Input'!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.5377289187622741E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4784481476255953E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3912145375165676E-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3218849094011243E-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2939426267633766E-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2736471118109424E-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2549672219830889E-10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2383671264542122E-10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.205719265847692E-10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1492991268912141E-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1368210220849665E-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1335822157542402E-10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1142963179436767E-10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1037097301795794E-10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0849007709058986E-10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0150187697187204E-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3570-4895-BEDE-C9BD13A79262}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="428290408"/>
+        <c:axId val="428292376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="428290408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Hz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428292376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="428292376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Capacitance (Farads)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428290408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Across Input'!$F$21:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2770</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9660</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Across Input'!$G$21:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1479822808850724</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18517154519126858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2012963297184536</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2024485697282902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20306850793224288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-847C-4135-A56E-79048F4E5844}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="421849280"/>
+        <c:axId val="421849936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="421849280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421849936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="421849936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421849280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2571,6 +4419,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3604,6 +5612,2070 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4152,6 +8224,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>623207</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>623207</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB12C981-5D02-4C1F-AE4A-9AAB3898C3B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4198,6 +8306,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>168729</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185057</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B4CF429-DC03-417F-95DA-A541C7C4AB1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4206,15 +8350,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>372837</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>70756</xdr:rowOff>
+      <xdr:colOff>410937</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>372837</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>410937</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4234,6 +8378,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424EFF0B-86B3-46CB-AF7D-F4290500BF3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>242207</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>168728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>242207</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B2666C4-5A19-4499-8CD2-59425C488F2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4539,10 +8755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2880727-EEF0-4CAC-8DC8-98ECFF3B2F50}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4552,7 +8768,7 @@
     <col min="3" max="3" width="10.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4562,8 +8778,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>500000</v>
       </c>
@@ -4573,8 +8795,16 @@
       <c r="C2">
         <v>87.6</v>
       </c>
+      <c r="D2">
+        <f>B2/(2*PI()*A2)</f>
+        <v>1.4514930809980855E-6</v>
+      </c>
+      <c r="E2">
+        <f>A2/(10^6)</f>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1000000</v>
       </c>
@@ -4584,8 +8814,16 @@
       <c r="C3">
         <v>88.2</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="0">B3/(2*PI()*A3)</f>
+        <v>1.437169136119815E-6</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="1">A3/(10^6)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1400000</v>
       </c>
@@ -4595,8 +8833,16 @@
       <c r="C4">
         <v>88.4</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.4255735616945482E-6</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1430000</v>
       </c>
@@ -4606,8 +8852,16 @@
       <c r="C5">
         <v>88.37</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.4257166580469784E-6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1.43</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1450000</v>
       </c>
@@ -4617,8 +8871,16 @@
       <c r="C6">
         <v>88.38</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1.4269063863411306E-6</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1.45</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1460000</v>
       </c>
@@ -4628,8 +8890,16 @@
       <c r="C7">
         <v>88.38</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.4258538737273911E-6</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1.46</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1500000</v>
       </c>
@@ -4639,8 +8909,16 @@
       <c r="C8">
         <v>88.4</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.4249672571494363E-6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2000000</v>
       </c>
@@ -4650,8 +8928,16 @@
       <c r="C9">
         <v>88.51</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.4180705429487875E-6</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2500000</v>
       </c>
@@ -4660,6 +8946,14 @@
       </c>
       <c r="C10">
         <v>88.62</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.412659274883663E-6</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -4673,10 +8967,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E175314E-0792-4F6D-8291-2E1833B7E4D6}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4684,9 +8978,10 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="17.84375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="23.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4696,8 +8991,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -4707,8 +9005,12 @@
       <c r="C2">
         <v>0.1</v>
       </c>
+      <c r="D2">
+        <f>B2</f>
+        <v>1000</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>500000</v>
       </c>
@@ -4718,8 +9020,12 @@
       <c r="C3">
         <v>-8.8000000000000007</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="0">B3</f>
+        <v>985</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1000000</v>
       </c>
@@ -4729,8 +9035,12 @@
       <c r="C4">
         <v>-17.100000000000001</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>950</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1500000</v>
       </c>
@@ -4740,8 +9050,12 @@
       <c r="C5">
         <v>-24.7</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>899</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2000000</v>
       </c>
@@ -4751,8 +9065,12 @@
       <c r="C6">
         <v>-31.6</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>839</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2500000</v>
       </c>
@@ -4761,6 +9079,10 @@
       </c>
       <c r="C7">
         <v>-37.5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -4771,10 +9093,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D5BAB5-FF55-4C28-B3D6-219083332015}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4782,20 +9104,27 @@
     <col min="1" max="1" width="14.84375" customWidth="1"/>
     <col min="2" max="2" width="16.69140625" customWidth="1"/>
     <col min="3" max="3" width="14.3828125" customWidth="1"/>
+    <col min="4" max="4" width="11.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>100000</v>
       </c>
@@ -4805,8 +9134,16 @@
       <c r="C2">
         <v>-88.62</v>
       </c>
+      <c r="D2">
+        <f xml:space="preserve"> ABS(1/(2*PI()*A2*B2))</f>
+        <v>1.5377289187622741E-10</v>
+      </c>
+      <c r="E2">
+        <f>D2*10^9</f>
+        <v>0.15377289187622742</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>500000</v>
       </c>
@@ -4816,8 +9153,16 @@
       <c r="C3">
         <v>-83.56</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D17" si="0" xml:space="preserve"> ABS(1/(2*PI()*A3*B3))</f>
+        <v>1.4784481476255953E-10</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E17" si="1">D3*10^9</f>
+        <v>0.14784481476255953</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1000000</v>
       </c>
@@ -4827,8 +9172,16 @@
       <c r="C4">
         <v>-78.69</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.3912145375165676E-10</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.13912145375165677</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1400000</v>
       </c>
@@ -4838,8 +9191,16 @@
       <c r="C5">
         <v>-76</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.3218849094011243E-10</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.13218849094011242</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1500000</v>
       </c>
@@ -4849,8 +9210,16 @@
       <c r="C6">
         <v>-75.8</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1.2939426267633766E-10</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.12939426267633766</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1600000</v>
       </c>
@@ -4860,8 +9229,16 @@
       <c r="C7">
         <v>-75.400000000000006</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.2736471118109424E-10</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.12736471118109424</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1700000</v>
       </c>
@@ -4871,8 +9248,16 @@
       <c r="C8">
         <v>-75.099999999999994</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.2549672219830889E-10</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.1254967221983089</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1800000</v>
       </c>
@@ -4882,8 +9267,16 @@
       <c r="C9">
         <v>-74.900000000000006</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.2383671264542122E-10</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.12383671264542122</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2000000</v>
       </c>
@@ -4893,8 +9286,16 @@
       <c r="C10">
         <v>-74.5</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.205719265847692E-10</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.1205719265847692</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2400000</v>
       </c>
@@ -4904,8 +9305,16 @@
       <c r="C11">
         <v>-74.3</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1.1492991268912141E-10</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.11492991268912141</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2500000</v>
       </c>
@@ -4915,8 +9324,16 @@
       <c r="C12">
         <v>-74.3</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1.1368210220849665E-10</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.11368210220849666</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2600000</v>
       </c>
@@ -4926,8 +9343,16 @@
       <c r="C13">
         <v>-74.3</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1.1335822157542402E-10</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.11335822157542401</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>2700000</v>
       </c>
@@ -4937,8 +9362,16 @@
       <c r="C14">
         <v>-74.3</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1.1142963179436767E-10</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.11142963179436767</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2800000</v>
       </c>
@@ -4948,8 +9381,16 @@
       <c r="C15">
         <v>-74.400000000000006</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1.1037097301795794E-10</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.11037097301795794</v>
+      </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>3000000</v>
       </c>
@@ -4959,8 +9400,16 @@
       <c r="C16">
         <v>-74.599999999999994</v>
       </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1.0849007709058986E-10</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.10849007709058986</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>4000000</v>
       </c>
@@ -4969,6 +9418,164 @@
       </c>
       <c r="C17">
         <v>-75.900000000000006</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.0150187697187204E-10</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.10150187697187203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>1500000</v>
+      </c>
+      <c r="B21">
+        <v>717</v>
+      </c>
+      <c r="C21">
+        <v>-78.06</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D20:D21" si="2" xml:space="preserve"> ABS(1/(2*PI()*A21*B21))</f>
+        <v>1.4798228088507239E-10</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E20:E21" si="3">D21*10^9</f>
+        <v>0.1479822808850724</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.1479822808850724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>370</v>
+      </c>
+      <c r="G22">
+        <v>0.18517154519126858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>1500000</v>
+      </c>
+      <c r="B23">
+        <v>573</v>
+      </c>
+      <c r="C23">
+        <v>-62.57</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D22:D23" si="4" xml:space="preserve"> ABS(1/(2*PI()*A23*B23))</f>
+        <v>1.8517154519126858E-10</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E22:E23" si="5">D23*10^9</f>
+        <v>0.18517154519126858</v>
+      </c>
+      <c r="F23">
+        <v>2770</v>
+      </c>
+      <c r="G23">
+        <v>0.2012963297184536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>5280</v>
+      </c>
+      <c r="G24">
+        <v>0.2024485697282902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>1500000</v>
+      </c>
+      <c r="B25">
+        <v>527.1</v>
+      </c>
+      <c r="C25">
+        <v>-62.32</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D24:D25" si="6" xml:space="preserve"> ABS(1/(2*PI()*A25*B25))</f>
+        <v>2.012963297184536E-10</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E24:E25" si="7">D25*10^9</f>
+        <v>0.2012963297184536</v>
+      </c>
+      <c r="F25">
+        <v>9660</v>
+      </c>
+      <c r="G25">
+        <v>0.20306850793224288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>1500000</v>
+      </c>
+      <c r="B27">
+        <v>524.1</v>
+      </c>
+      <c r="C27">
+        <v>-62.83</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27" si="8" xml:space="preserve"> ABS(1/(2*PI()*A27*B27))</f>
+        <v>2.0244856972829019E-10</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27" si="9">D27*10^9</f>
+        <v>0.2024485697282902</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>1500000</v>
+      </c>
+      <c r="B29">
+        <v>522.5</v>
+      </c>
+      <c r="C29">
+        <v>-63.06</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29" si="10" xml:space="preserve"> ABS(1/(2*PI()*A29*B29))</f>
+        <v>2.0306850793224286E-10</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29" si="11">D29*10^9</f>
+        <v>0.20306850793224288</v>
       </c>
     </row>
   </sheetData>
@@ -4976,6 +9583,7 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>